--- a/pred_ohlcv/54_21/2020-01-14 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>273528.5778000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>231589.0558000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>272138.8708000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>272138.8708000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>203226.6558000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>238770.3208000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>238770.3208000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>195216.8158000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>265803.5308000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>382943.4870000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>418987.7670000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>494580.6320000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>512092.6055000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>696996.1990000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>781432.0741000001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>732371.8041000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>779429.6141000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>816975.7391000001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>769417.3141000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>710845.3591000001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>774924.0791000001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>813471.4341000001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>736376.7241000001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>684813.3791000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>611222.9741000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>611222.9741000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>676767.4951000001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>603677.7051</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>662750.2751</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>118271.2707545668</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>176342.6107545668</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>208381.9707545668</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>177343.8407545668</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>122276.1907545668</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>253440.9448529275</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>185857.9198529275</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>236920.6498529275</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>196871.4498529275</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>196871.4498529275</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>227408.9648529275</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>193867.7598529275</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>228410.1948529275</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>265455.7048529275</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>309285.5488529275</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>189137.9488529275</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>110541.3938529275</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>30442.99385292747</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>69991.57885292746</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1407.323852927453</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-56163.40114707255</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-11108.05114707255</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>30442.99385292745</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-28878.58114707255</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>33197.67885292746</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-68927.78114707256</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-103970.8311470726</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-59916.71114707256</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>657.7038529274432</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>74748.72385292745</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>157.0888529274525</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-107475.1361470726</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-30716.83914707255</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-62255.58414707254</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>12836.66585292746</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-54245.74414707255</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-118825.0791470725</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-63256.81414707254</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-122829.9991470725</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2824.365852927469</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-63256.81414707252</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-8605.676147072525</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-54161.64114707252</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1907.238852927476</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-48654.87614707252</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>29441.06385292748</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-24124.74114707252</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-56664.71614707252</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>6913.388852927485</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>120112.4528529275</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-21060.97714707248</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-100158.1471470725</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-139206.1171470725</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-210293.4471470725</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-266362.3271470725</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-337950.2721470725</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-295397.9971470725</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-223309.4371470725</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-266862.9421470725</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-196276.2271470725</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-139206.1171470725</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-102200.6561470724</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-177793.5211470724</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-177793.5211470724</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-100198.1961470724</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-144752.9311470724</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-90185.89614707243</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-150259.6961470724</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-157484.5721470724</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-216056.5271470724</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>35752.81785292755</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-23319.75214707245</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-69376.33214707245</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>42761.42785292755</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-14366.37114707244</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-17370.06114707245</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>205904.2288529275</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>137319.9738529275</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>79749.24885292753</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>125397.3268529275</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>31281.70685292754</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>93357.96685292755</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>69328.44685292756</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>129902.8618529276</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-18779.79314707243</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>27777.40185292757</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>88852.43185292758</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>12758.95185292758</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>123394.8668529276</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>187974.2018529276</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>131524.8548529276</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>71951.66985292759</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>18886.47985292759</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>91475.65485292759</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-49697.77514707241</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-92250.05014707241</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-155327.5401470724</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-37783.1381470724</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>10776.5168529276</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>93878.60685292759</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>131925.3468529276</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>61839.24685292758</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>141437.0318529276</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>203012.6768529276</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>123915.5068529276</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>84867.53685292757</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>13780.20685292757</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>70349.70185292757</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>29299.27185292757</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-11250.54314707244</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-82838.48814707244</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-40286.21314707243</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-75829.87814707244</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-39284.98314707244</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-82838.48814707244</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-11683.07414707243</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-68753.18414707243</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-104797.4641470724</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-98289.46914707242</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>16877.46385292758</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-20668.66114707242</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>26889.76385292758</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-31682.19114707242</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>32396.52885292758</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-6150.826147072425</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-54209.86614707242</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-116786.7411470724</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>21382.99885292757</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-37689.57114707243</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>8367.008852927574</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-82536.66514707243</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-82536.66514707243</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-110070.4901470724</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>20590.02485292757</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-225500.7666470724</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-266299.7401470724</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-6807898.726547073</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-6865970.066547072</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-6865970.066547072</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-7132636.508447072</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-7064932.118147072</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-7064932.118147072</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-6989938.866547072</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-6898826.936547073</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-6965608.731547073</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-6927050.355447073</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-6995133.995447072</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-6958088.485447072</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-7181090.441447071</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-7226646.406447071</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-7170577.526447071</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7221139.641447071</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-7143043.701447071</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-7196609.50644707</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-7164069.531447071</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-7100491.42644707</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-7163568.91644707</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-7097988.35144707</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-6996363.50644707</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-6954311.84644707</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-7030905.94144707</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-6961320.45644707</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-6840857.145247069</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-6807816.555247069</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-7441643.172147071</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-7560288.927147071</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-7520039.727147071</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-7586621.522147071</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-7556084.007147071</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-7615742.450347071</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-7474013.444347071</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-7518067.564347071</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-7457493.149347071</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-7531584.16934707</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-7606175.80434707</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-7652732.99934707</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-7713808.02934707</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-7636801.427347071</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-7668340.172347071</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-7526165.512347071</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-7590744.84734707</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-7590744.84734707</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-7531171.662347071</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-7697089.432647071</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-7624500.257647071</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-7690581.437647071</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-7744647.857647071</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-7699091.892647071</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-7755160.772647071</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-7754824.359647071</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-7805386.474647071</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-7727290.534647071</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-8245139.520394194</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-8182638.738394193</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-8233701.468394194</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-8391630.877112225</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-8234933.181712225</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-8234933.181712225</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-8234933.181712225</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-8255539.780512225</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-8321584.060512225</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-8320558.230512225</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-8220558.230512225</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-8100175.668912225</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-8202281.679712226</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-8202281.679712226</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-8273885.479712225</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-8323882.900712226</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-8268967.437712227</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-8342057.227712227</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-8401129.797712227</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>273528.5778000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>231589.0558000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>272138.8708000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>272138.8708000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>203226.6558000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>238770.3208000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>238770.3208000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>195216.8158000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>265803.5308000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>382943.4870000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>418987.7670000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>494580.6320000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>512092.6055000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>696996.1990000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>841505.8741000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>781432.0741000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>732371.8041000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>779429.6141000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>816975.7391000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>769417.3141000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>710845.3591000001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>774924.0791000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>813471.4341000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>736376.7241000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>684813.3791000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>611222.9741000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>611222.9741000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>676767.4951000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>603677.7051</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>662750.2751</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>118271.2707545668</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>176342.6107545668</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>208381.9707545668</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>177343.8407545668</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>122276.1907545668</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>253440.9448529275</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>185857.9198529275</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>236920.6498529275</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>196871.4498529275</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>196871.4498529275</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>227408.9648529275</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>193867.7598529275</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>228410.1948529275</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>265455.7048529275</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>309285.5488529275</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>189137.9488529275</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>110541.3938529275</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>30442.99385292747</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>69991.57885292746</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1407.323852927453</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-56163.40114707255</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-11108.05114707255</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>30442.99385292745</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-28878.58114707255</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>33197.67885292746</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-68927.78114707256</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-103970.8311470726</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-59916.71114707256</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>657.7038529274432</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>74748.72385292745</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>157.0888529274525</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-107475.1361470726</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-30716.83914707255</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-62255.58414707254</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>12836.66585292746</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-54245.74414707255</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-118825.0791470725</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-63256.81414707254</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-122829.9991470725</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>2824.365852927469</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-63256.81414707252</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-8605.676147072525</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-54161.64114707252</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1907.238852927476</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-48654.87614707252</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>29441.06385292748</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-24124.74114707252</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-56664.71614707252</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>6913.388852927485</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-56164.10114707251</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9416.463852927489</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-42647.49614707251</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>48965.04885292749</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>125559.1438529275</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>55973.65885292749</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>137573.9038529275</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>87512.4038529275</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>49465.6638529275</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>119551.7638529275</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>120112.4528529275</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-21060.97714707248</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-100158.1471470725</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-139206.1171470725</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-210293.4471470725</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-266862.9421470725</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-225812.5121470725</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-266362.3271470725</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-337950.2721470725</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-295397.9971470725</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-223309.4371470725</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-266862.9421470725</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-196276.2271470725</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-139206.1171470725</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-102200.6561470724</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-177793.5211470724</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-177793.5211470724</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-100198.1961470724</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-144752.9311470724</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-90185.89614707243</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-150259.6961470724</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-101199.4261470724</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-148257.2361470724</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-110711.1111470724</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-109926.1471470724</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-157484.5721470724</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-216056.5271470724</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-151977.8071470724</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-190525.1621470724</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-113430.4521470724</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-164993.7971470724</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-164993.7971470724</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-102416.9221470724</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-37336.97214707245</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>35752.81785292755</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-23319.75214707245</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-69376.33214707245</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-11304.99214707245</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-43344.35214707245</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>42761.42785292755</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-25379.90114707245</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>25682.82885292755</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-14366.37114707244</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-14366.37114707244</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>16171.14385292755</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-17370.06114707245</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>17172.37385292755</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-19873.13614707245</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>23179.75385292755</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>95268.31385292755</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>47209.27385292754</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>125805.8288529275</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>205904.2288529275</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>137319.9738529275</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>79749.24885292753</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>125397.3268529275</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>31281.70685292754</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>93357.96685292755</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>25274.32685292755</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>25274.32685292755</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>69328.44685292756</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>129902.8618529276</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-18779.79314707243</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>27777.40185292757</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>88852.43185292758</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>12758.95185292758</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-18779.79314707242</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>56312.45685292759</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>123394.8668529276</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>187974.2018529276</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>131524.8548529276</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>71951.66985292759</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>18886.47985292759</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>91475.65485292759</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>25394.4748529276</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>79460.89485292759</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-22163.95014707241</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>28398.16485292759</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-49697.77514707241</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>3868.02985292759</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-92250.05014707241</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-155327.5401470724</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-89746.9751470724</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-37683.0151470724</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-87243.9001470724</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-45192.2401470724</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>31802.3468529276</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-37783.1381470724</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>10776.5168529276</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>93878.60685292759</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>131925.3468529276</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>61839.24685292758</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>141437.0318529276</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>203012.6768529276</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>123915.5068529276</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>84867.53685292757</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>13780.20685292757</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>70349.70185292757</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>29299.27185292757</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-11250.54314707244</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-82838.48814707244</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-40286.21314707243</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-75829.87814707244</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-39284.98314707244</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-82838.48814707244</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-11683.07414707243</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-68753.18414707243</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-104797.4641470724</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-29204.59914707243</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-98289.46914707242</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>23860.59085292758</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>78427.62585292758</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>18353.82585292758</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-30706.44414707242</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>16351.36585292758</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>16877.46385292758</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-20668.66114707242</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>26889.76385292758</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-31682.19114707242</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>32396.52885292758</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-6150.826147072425</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>70943.88385292758</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-54209.86614707242</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-116786.7411470724</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>21382.99885292757</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-37689.57114707243</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>8367.008852927574</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-82536.66514707243</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-82536.66514707243</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-137604.3151470724</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-70021.29014707243</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-70021.29014707243</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-110070.4901470724</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-43488.69514707243</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-12951.18014707243</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>20590.02485292757</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-225500.7666470724</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-266299.7401470724</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-366299.7401470724</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-323246.8501470724</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-196158.2901470724</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-325813.8851470724</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-331613.8851470724</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-414288.5531470724</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-453837.1381470724</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-294307.5846470724</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-241743.0096470724</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-337861.0896470724</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-405944.7296470724</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-414955.7996470724</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-353846.0296470724</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-427937.0496470724</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-549085.8796470724</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-488010.8496470724</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-564104.3296470724</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-532565.5846470724</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-467986.2496470723</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-395397.0746470723</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-461478.2546470723</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-461478.2546470723</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-507034.2196470723</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-563103.0996470723</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-7295074.469447072</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-7242009.279447071</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-7169075.681447071</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-7235156.861447071</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-7181090.441447071</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-7226646.406447071</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-7170577.526447071</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-7221139.641447071</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-7143043.701447071</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-7196609.50644707</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-7164069.531447071</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-7100491.42644707</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-7163568.91644707</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-7097988.35144707</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-6996363.50644707</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-6954311.84644707</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-7030905.94144707</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-6961320.45644707</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-6840857.145247069</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-6807816.555247069</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-6757755.055247069</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-7441643.172147071</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-7560288.927147071</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-7520039.727147071</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-7586621.522147071</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-7556084.007147071</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-7474013.444347071</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-7518067.564347071</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-7457493.149347071</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-7531584.16934707</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-7606175.80434707</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-7652732.99934707</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-7713808.02934707</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-7636801.427347071</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-7668340.172347071</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-7526165.512347071</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-7590744.84734707</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-7590744.84734707</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-7531171.662347071</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-7697089.432647071</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-7624500.257647071</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-7690581.437647071</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-7744647.857647071</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-7699091.892647071</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-7755160.772647071</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-7754824.359647071</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-7805386.474647071</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-7727290.534647071</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-8245139.520394194</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-8182638.738394193</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-8233701.468394194</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-8391630.877112225</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-8234933.181712225</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-8234933.181712225</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-8234933.181712225</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-8255539.780512225</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-8321584.060512225</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-8245991.195512225</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-8320558.230512225</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-8220558.230512225</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-8100175.668912225</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
